--- a/Phase 2/Gantt chart.xlsx
+++ b/Phase 2/Gantt chart.xlsx
@@ -3578,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="63">
-        <v>0.85</v>
+        <v>1.0</v>
       </c>
       <c r="I34" s="102"/>
       <c r="J34" s="103"/>
